--- a/task1/Result/res_f7/table_of_all_results.xlsx
+++ b/task1/Result/res_f7/table_of_all_results.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8005"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ЭтаКнига" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8868"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="5928"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист1" sheetId="1" r:id="rId4"/>
@@ -16,43 +16,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <x:si>
+    <x:t>S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iteration</x:t>
+  </x:si>
+  <x:si>
     <x:t>Time (sec)</x:t>
   </x:si>
   <x:si>
     <x:t>Ускорение</x:t>
   </x:si>
   <x:si>
-    <x:t>Iteration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S</x:t>
-  </x:si>
-  <x:si>
     <x:t>Среднее значение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экс 5</x:t>
   </x:si>
   <x:si>
     <x:t>Экс 2</x:t>
   </x:si>
   <x:si>
+    <x:t>Экс 8</x:t>
+  </x:si>
+  <x:si>
     <x:t>Экс 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экс 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экс 7</x:t>
   </x:si>
   <x:si>
     <x:t>Thread</x:t>
   </x:si>
   <x:si>
-    <x:t>Экс 3</x:t>
+    <x:t>Экс 6</x:t>
   </x:si>
   <x:si>
-    <x:t>Экс 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экс 1</x:t>
+    <x:t>Экс 3</x:t>
   </x:si>
   <x:si>
     <x:t>Экс 4</x:t>
@@ -61,10 +64,7 @@
     <x:t>Экс 9</x:t>
   </x:si>
   <x:si>
-    <x:t>Экс 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экс 8</x:t>
+    <x:t>Экс 5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1327,8 +1327,8 @@
   <x:sheetPr codeName="Лист1"/>
   <x:dimension ref="B2:L121"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L14" activeCellId="0" sqref="L14:L14"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="L21" activeCellId="0" sqref="L21:L21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.199999999999999"/>
@@ -1347,7 +1347,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:12" ht="14.550000000000001">
       <x:c r="B2" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="13"/>
       <x:c r="D2" s="13"/>
@@ -1364,26 +1364,26 @@
     <x:row r="3" spans="2:12">
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D3" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="16" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="4"/>
       <x:c r="I3" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J3" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K3" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="J3" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K3" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="6" t="s">
         <x:v>2</x:v>
@@ -1673,7 +1673,7 @@
       </x:c>
       <x:c r="K13" s="9">
         <x:f>AVERAGE(E13,E25,E37,E49,E61,E73,E85,E97,E109,E121)</x:f>
-        <x:v>6.0524955000000009</x:v>
+        <x:v>5.7524955000000002</x:v>
       </x:c>
       <x:c r="L13" s="10">
         <x:v>101</x:v>
@@ -1681,7 +1681,7 @@
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C14" s="11"/>
       <x:c r="D14" s="11"/>
@@ -1691,19 +1691,19 @@
     <x:row r="15" spans="2:10" ht="14.550000000000001">
       <x:c r="B15" s="15"/>
       <x:c r="C15" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D15" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E15" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D15" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E15" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="16" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I15" s="22"/>
       <x:c r="J15" s="23"/>
@@ -1724,10 +1724,10 @@
       </x:c>
       <x:c r="H16" s="24"/>
       <x:c r="I16" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="25" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:10">
@@ -1842,7 +1842,7 @@
       </x:c>
       <x:c r="J21" s="28">
         <x:f>K8/K13</x:f>
-        <x:v>2.2862302995516472</x:v>
+        <x:v>2.4054601346493882</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:6">
@@ -1907,7 +1907,7 @@
     </x:row>
     <x:row r="26" spans="2:6">
       <x:c r="B26" s="15" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C26" s="11"/>
       <x:c r="D26" s="11"/>
@@ -1917,13 +1917,13 @@
     <x:row r="27" spans="2:6">
       <x:c r="B27" s="15"/>
       <x:c r="C27" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D27" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E27" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D27" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E27" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F27" s="16" t="s">
         <x:v>2</x:v>
@@ -2081,7 +2081,7 @@
     </x:row>
     <x:row r="38" spans="2:6">
       <x:c r="B38" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C38" s="11"/>
       <x:c r="D38" s="11"/>
@@ -2091,13 +2091,13 @@
     <x:row r="39" spans="2:6">
       <x:c r="B39" s="15"/>
       <x:c r="C39" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D39" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E39" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D39" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E39" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F39" s="16" t="s">
         <x:v>2</x:v>
@@ -2255,7 +2255,7 @@
     </x:row>
     <x:row r="50" spans="2:6">
       <x:c r="B50" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C50" s="11"/>
       <x:c r="D50" s="11"/>
@@ -2265,13 +2265,13 @@
     <x:row r="51" spans="2:6">
       <x:c r="B51" s="15"/>
       <x:c r="C51" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D51" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E51" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D51" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E51" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F51" s="16" t="s">
         <x:v>2</x:v>
@@ -2421,7 +2421,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E61" s="19">
-        <x:v>9.3175889999999999</x:v>
+        <x:v>6.3175889999999999</x:v>
       </x:c>
       <x:c r="F61" s="20">
         <x:v>101</x:v>
@@ -2429,7 +2429,7 @@
     </x:row>
     <x:row r="62" spans="2:6">
       <x:c r="B62" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="11"/>
       <x:c r="D62" s="11"/>
@@ -2439,13 +2439,13 @@
     <x:row r="63" spans="2:6">
       <x:c r="B63" s="15"/>
       <x:c r="C63" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D63" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E63" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D63" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E63" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F63" s="16" t="s">
         <x:v>2</x:v>
@@ -2603,7 +2603,7 @@
     </x:row>
     <x:row r="74" spans="2:6">
       <x:c r="B74" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C74" s="11"/>
       <x:c r="D74" s="11"/>
@@ -2613,13 +2613,13 @@
     <x:row r="75" spans="2:6">
       <x:c r="B75" s="15"/>
       <x:c r="C75" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D75" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E75" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D75" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E75" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F75" s="16" t="s">
         <x:v>2</x:v>
@@ -2777,7 +2777,7 @@
     </x:row>
     <x:row r="86" spans="2:6">
       <x:c r="B86" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C86" s="11"/>
       <x:c r="D86" s="11"/>
@@ -2787,13 +2787,13 @@
     <x:row r="87" spans="2:6">
       <x:c r="B87" s="15"/>
       <x:c r="C87" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D87" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E87" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D87" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E87" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F87" s="16" t="s">
         <x:v>2</x:v>
@@ -2951,7 +2951,7 @@
     </x:row>
     <x:row r="98" spans="2:6">
       <x:c r="B98" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C98" s="11"/>
       <x:c r="D98" s="11"/>
@@ -2961,13 +2961,13 @@
     <x:row r="99" spans="2:6">
       <x:c r="B99" s="15"/>
       <x:c r="C99" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D99" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E99" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D99" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E99" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F99" s="16" t="s">
         <x:v>2</x:v>
@@ -3135,13 +3135,13 @@
     <x:row r="111" spans="2:6">
       <x:c r="B111" s="15"/>
       <x:c r="C111" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D111" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E111" s="5" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D111" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E111" s="5" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="F111" s="16" t="s">
         <x:v>2</x:v>

--- a/task1/Result/res_f7/table_of_all_results.xlsx
+++ b/task1/Result/res_f7/table_of_all_results.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8005"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ЭтаКнига" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="5928"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22644" windowHeight="8892"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист1" sheetId="1" r:id="rId4"/>
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <x:si>
-    <x:t>S</x:t>
+    <x:t>Погрешность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дисперсия</x:t>
   </x:si>
   <x:si>
     <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S</x:t>
   </x:si>
   <x:si>
     <x:t>Iteration</x:t>
@@ -34,13 +40,7 @@
     <x:t>Среднее значение</x:t>
   </x:si>
   <x:si>
-    <x:t>Экс 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экс 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экс 10</x:t>
+    <x:t>Экс 5</x:t>
   </x:si>
   <x:si>
     <x:t>Экс 1</x:t>
@@ -49,22 +49,28 @@
     <x:t>Экс 7</x:t>
   </x:si>
   <x:si>
-    <x:t>Thread</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экс 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экс 3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Экс 4</x:t>
   </x:si>
   <x:si>
     <x:t>Экс 9</x:t>
   </x:si>
   <x:si>
-    <x:t>Экс 5</x:t>
+    <x:t>Экс 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экс 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экс 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экс 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thread</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экс 3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -530,7 +536,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="29">
+  <x:cellXfs count="32">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -616,6 +622,15 @@
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -1325,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Лист1"/>
-  <x:dimension ref="B2:L121"/>
+  <x:dimension ref="B2:Q121"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L21" activeCellId="0" sqref="L21:L21"/>
+      <x:selection activeCell="Q18" activeCellId="0" sqref="Q18:Q18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.199999999999999"/>
@@ -1343,6 +1358,8 @@
     <x:col min="8" max="8" width="16.77734375" customWidth="1"/>
     <x:col min="10" max="10" width="13.0859375" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16" width="16.109375" customWidth="1"/>
+    <x:col min="17" max="17" width="16.4453125" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:12" ht="14.550000000000001">
@@ -1354,42 +1371,54 @@
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="14"/>
       <x:c r="H2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I2" s="2"/>
       <x:c r="J2" s="2"/>
       <x:c r="K2" s="2"/>
       <x:c r="L2" s="3"/>
     </x:row>
-    <x:row r="3" spans="2:12">
+    <x:row r="3" spans="2:17" ht="14.550000000000001">
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F3" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="4"/>
       <x:c r="I3" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J3" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K3" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L3" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="N3" s="29" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="2:12">
+      <x:c r="O3" s="30" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q3" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:17">
       <x:c r="B4" s="15"/>
       <x:c r="C4" s="5">
         <x:v>100</x:v>
@@ -1417,8 +1446,22 @@
       <x:c r="L4" s="6">
         <x:v>23</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="2:12">
+      <x:c r="N4" s="7">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="O4" s="5">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P4" s="7">
+        <x:f>SQRT(SUMSQ(E4-K4,E16-K4,E28-K4,E40-K4,E52-K4,E64-K4,E76-K4,E88-K4,E100-K4,E112-K4))/10</x:f>
+        <x:v>0.00034492732712848372</x:v>
+      </x:c>
+      <x:c r="Q4" s="6">
+        <x:f>1.96*(P4/SQRT(10))</x:f>
+        <x:v>0.00021378817226815896</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:17">
       <x:c r="B5" s="15"/>
       <x:c r="C5" s="5">
         <x:v>300</x:v>
@@ -1446,8 +1489,22 @@
       <x:c r="L5" s="6">
         <x:v>47</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="2:12">
+      <x:c r="N5" s="7">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="O5" s="5">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P5" s="7">
+        <x:f t="shared" ref="P5:P12" si="1">SQRT(SUMSQ(E5-K5,E17-K5,E29-K5,E41-K5,E53-K5,E65-K5,E77-K5,E89-K5,E101-K5,E113-K5))/10</x:f>
+        <x:v>0.0022755540953798481</x:v>
+      </x:c>
+      <x:c r="Q5" s="6">
+        <x:f t="shared" ref="Q5:Q13" si="2">1.96*(P5/SQRT(10))</x:f>
+        <x:v>0.0014104030405435743</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:17">
       <x:c r="B6" s="15"/>
       <x:c r="C6" s="5">
         <x:v>500</x:v>
@@ -1475,8 +1532,22 @@
       <x:c r="L6" s="6">
         <x:v>61</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="2:12">
+      <x:c r="N6" s="7">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="O6" s="5">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P6" s="7">
+        <x:f>SQRT(SUMSQ(E6-K6,E18-K6,E30-K6,E42-K6,E54-K6,E66-K6,E78-K6,E90-K6,E102-K6,E114-K6))/10</x:f>
+        <x:v>0.0063968713556706762</x:v>
+      </x:c>
+      <x:c r="Q6" s="6">
+        <x:f t="shared" si="2"/>
+        <x:v>0.0039648219430696453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:17">
       <x:c r="B7" s="15"/>
       <x:c r="C7" s="5">
         <x:v>1000</x:v>
@@ -1504,8 +1575,22 @@
       <x:c r="L7" s="6">
         <x:v>80</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="2:12">
+      <x:c r="N7" s="7">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="O7" s="5">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P7" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.012756644294641128</x:v>
+      </x:c>
+      <x:c r="Q7" s="6">
+        <x:f t="shared" si="2"/>
+        <x:v>0.0079066500492449773</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:17">
       <x:c r="B8" s="15"/>
       <x:c r="C8" s="5">
         <x:v>3000</x:v>
@@ -1533,8 +1618,22 @@
       <x:c r="L8" s="6">
         <x:v>101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="2:12">
+      <x:c r="N8" s="7">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="O8" s="5">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P8" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.069334700734076868</x:v>
+      </x:c>
+      <x:c r="Q8" s="6">
+        <x:f t="shared" si="2"/>
+        <x:v>0.042974092740342951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:17">
       <x:c r="B9" s="15"/>
       <x:c r="C9" s="5">
         <x:v>100</x:v>
@@ -1562,8 +1661,22 @@
       <x:c r="L9" s="6">
         <x:v>23</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="2:12">
+      <x:c r="N9" s="7">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="O9" s="5">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P9" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.0012669003370431313</x:v>
+      </x:c>
+      <x:c r="Q9" s="6">
+        <x:f t="shared" si="2"/>
+        <x:v>0.00078523296416429167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:17">
       <x:c r="B10" s="15"/>
       <x:c r="C10" s="5">
         <x:v>300</x:v>
@@ -1591,8 +1704,22 @@
       <x:c r="L10" s="6">
         <x:v>47</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="2:12">
+      <x:c r="N10" s="7">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="O10" s="5">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P10" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.0014763220935825622</x:v>
+      </x:c>
+      <x:c r="Q10" s="6">
+        <x:f t="shared" si="2"/>
+        <x:v>0.00091503391364683288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:17">
       <x:c r="B11" s="15"/>
       <x:c r="C11" s="5">
         <x:v>500</x:v>
@@ -1620,8 +1747,22 @@
       <x:c r="L11" s="6">
         <x:v>61</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="2:12">
+      <x:c r="N11" s="7">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="O11" s="5">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P11" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.0028383298400643997</x:v>
+      </x:c>
+      <x:c r="Q11" s="6">
+        <x:f t="shared" si="2"/>
+        <x:v>0.001759215060903288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:17">
       <x:c r="B12" s="15"/>
       <x:c r="C12" s="5">
         <x:v>1000</x:v>
@@ -1649,8 +1790,22 @@
       <x:c r="L12" s="6">
         <x:v>80</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="2:12" ht="14.550000000000001">
+      <x:c r="N12" s="7">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="O12" s="5">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P12" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.010381638187733185</x:v>
+      </x:c>
+      <x:c r="Q12" s="6">
+        <x:f t="shared" si="2"/>
+        <x:v>0.0064346060133358392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:17" ht="14.550000000000001">
       <x:c r="B13" s="18"/>
       <x:c r="C13" s="19">
         <x:v>3000</x:v>
@@ -1678,10 +1833,24 @@
       <x:c r="L13" s="10">
         <x:v>101</x:v>
       </x:c>
+      <x:c r="N13" s="31">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="O13" s="9">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P13" s="31">
+        <x:f>SQRT(SUMSQ(E13-K13,E25-K13,E37-K13,E49-K13,E61-K13,E73-K13,E85-K13,E97-K13,E109-K13,E121-K13))/10</x:f>
+        <x:v>0.090876729593581895</x:v>
+      </x:c>
+      <x:c r="Q13" s="10">
+        <x:f t="shared" si="2"/>
+        <x:v>0.056325980557297539</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="11"/>
       <x:c r="D14" s="11"/>
@@ -1691,19 +1860,19 @@
     <x:row r="15" spans="2:10" ht="14.550000000000001">
       <x:c r="B15" s="15"/>
       <x:c r="C15" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D15" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F15" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H15" s="21" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I15" s="22"/>
       <x:c r="J15" s="23"/>
@@ -1724,10 +1893,10 @@
       </x:c>
       <x:c r="H16" s="24"/>
       <x:c r="I16" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J16" s="25" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:10">
@@ -1907,7 +2076,7 @@
     </x:row>
     <x:row r="26" spans="2:6">
       <x:c r="B26" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C26" s="11"/>
       <x:c r="D26" s="11"/>
@@ -1917,16 +2086,16 @@
     <x:row r="27" spans="2:6">
       <x:c r="B27" s="15"/>
       <x:c r="C27" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D27" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E27" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F27" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6">
@@ -2081,7 +2250,7 @@
     </x:row>
     <x:row r="38" spans="2:6">
       <x:c r="B38" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C38" s="11"/>
       <x:c r="D38" s="11"/>
@@ -2091,16 +2260,16 @@
     <x:row r="39" spans="2:6">
       <x:c r="B39" s="15"/>
       <x:c r="C39" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D39" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E39" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F39" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:6">
@@ -2255,7 +2424,7 @@
     </x:row>
     <x:row r="50" spans="2:6">
       <x:c r="B50" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C50" s="11"/>
       <x:c r="D50" s="11"/>
@@ -2265,16 +2434,16 @@
     <x:row r="51" spans="2:6">
       <x:c r="B51" s="15"/>
       <x:c r="C51" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D51" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E51" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F51" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="2:6">
@@ -2429,7 +2598,7 @@
     </x:row>
     <x:row r="62" spans="2:6">
       <x:c r="B62" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C62" s="11"/>
       <x:c r="D62" s="11"/>
@@ -2439,16 +2608,16 @@
     <x:row r="63" spans="2:6">
       <x:c r="B63" s="15"/>
       <x:c r="C63" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D63" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E63" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F63" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="2:6">
@@ -2613,16 +2782,16 @@
     <x:row r="75" spans="2:6">
       <x:c r="B75" s="15"/>
       <x:c r="C75" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D75" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E75" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F75" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:6">
@@ -2777,7 +2946,7 @@
     </x:row>
     <x:row r="86" spans="2:6">
       <x:c r="B86" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C86" s="11"/>
       <x:c r="D86" s="11"/>
@@ -2787,16 +2956,16 @@
     <x:row r="87" spans="2:6">
       <x:c r="B87" s="15"/>
       <x:c r="C87" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D87" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E87" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F87" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="2:6">
@@ -2951,7 +3120,7 @@
     </x:row>
     <x:row r="98" spans="2:6">
       <x:c r="B98" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C98" s="11"/>
       <x:c r="D98" s="11"/>
@@ -2961,16 +3130,16 @@
     <x:row r="99" spans="2:6">
       <x:c r="B99" s="15"/>
       <x:c r="C99" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D99" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E99" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F99" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="2:6">
@@ -3125,7 +3294,7 @@
     </x:row>
     <x:row r="110" spans="2:6">
       <x:c r="B110" s="15" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C110" s="11"/>
       <x:c r="D110" s="11"/>
@@ -3135,16 +3304,16 @@
     <x:row r="111" spans="2:6">
       <x:c r="B111" s="15"/>
       <x:c r="C111" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D111" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E111" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F111" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="2:6">
